--- a/Dados/net_users_num.xlsx
+++ b/Dados/net_users_num.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pos Mackenzie\Componentes Curriculares\Paradigmas Linguagem Programacao\Aprofundamento 02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pos Mackenzie\Componentes Curriculares\Paradigmas Linguagem Programacao\Aprofundamento 02\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEACF0F6-DF2D-4072-9C7E-1EF7D11DDAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E1A0BD-D50A-43AA-AF42-BA38ADAA0A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
